--- a/WEG_Billing_2025-10.xlsx
+++ b/WEG_Billing_2025-10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gailcoin-my.sharepoint.com/personal/vijendra_singh_gail_co_in/Documents/Work/Electricity Bills/Bills/1 IPS Samakhiali/2025/10 OCT 2025/0 Application/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\vije1711\Projects\HT_Bill_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_028A95556F42F1F0EB3F1D5460B5CC04719DC28C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0AD298A-87DC-4813-86BD-DDF299CA1AB5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6904AF3-4542-4721-9452-E3528F7D98E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-02" sheetId="1" r:id="rId1"/>
@@ -593,9 +593,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="169" formatCode="\₹#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="\₹#,##0.000000"/>
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="\₹#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="\₹#,##0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -630,10 +630,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -976,13 +976,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.3125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -990,7 +1000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -998,7 +1008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1012,7 +1022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1029,7 +1039,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1046,7 +1056,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1063,7 +1073,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1080,7 +1090,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1097,7 +1107,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1114,7 +1124,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1131,7 +1141,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1148,7 +1158,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1165,7 +1175,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1182,7 +1192,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1199,7 +1209,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1216,7 +1226,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1233,7 +1243,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1250,7 +1260,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1267,7 +1277,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1278,13 +1288,13 @@
         <v>43</v>
       </c>
       <c r="D21">
-        <v>-4102.6899999999996</v>
+        <v>4102.6899999999996</v>
       </c>
       <c r="E21" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -1301,7 +1311,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -1318,7 +1328,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -1335,7 +1345,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -1352,7 +1362,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -1369,7 +1379,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -1386,7 +1396,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -1403,7 +1413,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -1420,7 +1430,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -1437,7 +1447,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -1454,7 +1464,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -1471,7 +1481,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -1488,7 +1498,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -1505,7 +1515,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -1522,7 +1532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -1539,7 +1549,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -1556,7 +1566,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -1573,7 +1583,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -1590,7 +1600,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -1607,7 +1617,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -1624,7 +1634,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>91</v>
       </c>
@@ -1641,7 +1651,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -1658,7 +1668,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -1675,7 +1685,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -1692,7 +1702,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -1709,7 +1719,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -1726,7 +1736,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -1743,7 +1753,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>104</v>
       </c>
@@ -1769,7 +1779,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>112</v>
       </c>
@@ -1795,7 +1805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -1821,7 +1831,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>116</v>
       </c>
@@ -1847,7 +1857,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>118</v>
       </c>
@@ -1873,7 +1883,7 @@
         <v>675925</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>120</v>
       </c>
@@ -1899,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>122</v>
       </c>
@@ -1925,7 +1935,7 @@
         <v>6582817.5</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>124</v>
       </c>
@@ -1951,7 +1961,7 @@
         <v>3839976.8750000009</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>125</v>
       </c>
@@ -1977,7 +1987,7 @@
         <v>444964.8</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>127</v>
       </c>
@@ -2003,7 +2013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
         <v>129</v>
       </c>
@@ -2029,7 +2039,7 @@
         <v>-151404.80249999999</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
         <v>131</v>
       </c>
@@ -2055,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
         <v>133</v>
       </c>
@@ -2081,7 +2091,7 @@
         <v>2319456.5300000003</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
         <v>135</v>
       </c>
@@ -2107,7 +2117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
         <v>137</v>
       </c>
@@ -2133,7 +2143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
         <v>139</v>
       </c>
@@ -2159,7 +2169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
         <v>141</v>
       </c>
@@ -2189,7 +2199,7 @@
   <autoFilter ref="A4:E51" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:H5 A17:H17 A6:D6 F6:H6 A7:D7 F7:H7 A8:D8 F8:H8 A9:D9 F9:H9 A10:D10 F10:H10 A11:D11 F11:H11 A12:D12 F12:H12 A13:D13 F13:H13 A14:D14 F14:H14 A15:D15 F15:H15 A16:D16 F16:H16 A25:H37 A18:D18 F18:H18 A19:D19 F19:H19 A20:D20 F20:H20 A21:D21 F21:H21 A22:D22 F22:H22 A23:D23 F23:H23 A24:D24 F24:H24 A50:H50 A38:D38 F38:H38 A39:D39 F39:H39 A40:D40 F40:H40 A41:D41 F41:H41 A42:D42 F42:H42 A43:D43 F43:H43 A44:D44 F44:H44 A45:D45 F45:H45 A46:D46 F46:H46 A47 C47:D47 F47:H47 A48 C48:D48 F48:H48 A49 C49:D49 F49:H49 A52:H69 A51:D51 F51:H51" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:H5 A17:H17 A6:D6 F6:H6 A7:D7 F7:H7 A8:D8 F8:H8 A9:D9 F9:H9 A10:D10 F10:H10 A11:D11 F11:H11 A12:D12 F12:H12 A13:D13 F13:H13 A14:D14 F14:H14 A15:D15 F15:H15 A16:D16 F16:H16 A25:H37 A18:D18 F18:H18 A19:D19 F19:H19 A20:D20 F20:H20 A21:C21 F21:H21 A22:D22 F22:H22 A23:D23 F23:H23 A24:D24 F24:H24 A50:H50 A38:D38 F38:H38 A39:D39 F39:H39 A40:D40 F40:H40 A41:D41 F41:H41 A42:D42 F42:H42 A43:D43 F43:H43 A44:D44 F44:H44 A45:D45 F45:H45 A46:D46 F46:H46 A47 C47:D47 F47:H47 A48 C48:D48 F48:H48 A49 C49:D49 F49:H49 A52:H69 A51:D51 F51:H51" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2199,16 +2209,21 @@
   <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.6875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>143</v>
       </c>
@@ -2216,7 +2231,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2224,7 +2239,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2238,7 +2253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2255,7 +2270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2272,7 +2287,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2289,7 +2304,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2306,7 +2321,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2323,7 +2338,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2340,7 +2355,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2357,7 +2372,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -2374,7 +2389,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -2391,7 +2406,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -2408,7 +2423,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -2425,7 +2440,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2442,7 +2457,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -2459,7 +2474,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -2476,7 +2491,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -2493,7 +2508,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -2504,13 +2519,13 @@
         <v>43</v>
       </c>
       <c r="D21">
-        <v>5331721.8899999997</v>
+        <v>-5331721.8899999997</v>
       </c>
       <c r="E21" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -2527,7 +2542,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -2544,7 +2559,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -2561,7 +2576,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -2578,7 +2593,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -2595,7 +2610,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -2612,7 +2627,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -2629,7 +2644,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -2646,7 +2661,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -2663,7 +2678,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -2680,7 +2695,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -2697,7 +2712,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -2714,7 +2729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -2731,7 +2746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -2748,7 +2763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -2765,7 +2780,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -2782,7 +2797,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -2799,7 +2814,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -2816,7 +2831,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -2833,7 +2848,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -2850,7 +2865,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>91</v>
       </c>
@@ -2867,7 +2882,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -2884,7 +2899,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -2901,7 +2916,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -2918,7 +2933,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -2935,7 +2950,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -2952,7 +2967,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -2969,7 +2984,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>104</v>
       </c>
@@ -2995,7 +3010,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>112</v>
       </c>
@@ -3021,7 +3036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -3047,7 +3062,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>116</v>
       </c>
@@ -3073,7 +3088,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>118</v>
       </c>
@@ -3099,7 +3114,7 @@
         <v>675925</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>120</v>
       </c>
@@ -3125,7 +3140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>122</v>
       </c>
@@ -3151,7 +3166,7 @@
         <v>5631360</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>124</v>
       </c>
@@ -3177,7 +3192,7 @@
         <v>3284960.0000000005</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>125</v>
       </c>
@@ -3203,7 +3218,7 @@
         <v>382776.25</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>127</v>
       </c>
@@ -3229,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
         <v>129</v>
       </c>
@@ -3255,7 +3270,7 @@
         <v>-132336.95999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
         <v>131</v>
       </c>
@@ -3281,7 +3296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
         <v>133</v>
       </c>
@@ -3307,7 +3322,7 @@
         <v>2009536.858</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
         <v>135</v>
       </c>
@@ -3333,7 +3348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
         <v>137</v>
       </c>
@@ -3359,7 +3374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
         <v>139</v>
       </c>
@@ -3385,7 +3400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
         <v>141</v>
       </c>
@@ -3415,7 +3430,7 @@
   <autoFilter ref="A4:E51" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:H5 A17:H17 A6:D6 F6:H6 A7:D7 F7:H7 A8:D8 F8:H8 A9:D9 F9:H9 A10:D10 F10:H10 A11:D11 F11:H11 A12:D12 F12:H12 A13:D13 F13:H13 A14:D14 F14:H14 A15:D15 F15:H15 A16:D16 F16:H16 A25:H37 A18:D18 F18:H18 A19:D19 F19:H19 A20:D20 F20:H20 A21:D21 F21:H21 A22:D22 F22:H22 A23:D23 F23:H23 A24:D24 F24:H24 A50:H50 A38:D38 F38:H38 A39:D39 F39:H39 A40:D40 F40:H40 A41:D41 F41:H41 A42:D42 F42:H42 A43:D43 F43:H43 A44:D44 F44:H44 A45:D45 F45:H45 A46:D46 F46:H46 A47 C47:D47 F47:H47 A48 C48:D48 F48:H48 A49 C49:D49 F49:H49 A52:H69 A51:D51 F51:H51" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:H5 A17:H17 A6:D6 F6:H6 A7:D7 F7:H7 A8:D8 F8:H8 A9:D9 F9:H9 A10:D10 F10:H10 A11:D11 F11:H11 A12:D12 F12:H12 A13:D13 F13:H13 A14:D14 F14:H14 A15:D15 F15:H15 A16:D16 F16:H16 A25:H37 A18:D18 F18:H18 A19:D19 F19:H19 A20:D20 F20:H20 A21:C21 F21:H21 A22:D22 F22:H22 A23:D23 F23:H23 A24:D24 F24:H24 A50:H50 A38:D38 F38:H38 A39:D39 F39:H39 A40:D40 F40:H40 A41:D41 F41:H41 A42:D42 F42:H42 A43:D43 F43:H43 A44:D44 F44:H44 A45:D45 F45:H45 A46:D46 F46:H46 A47 C47:D47 F47:H47 A48 C48:D48 F48:H48 A49 C49:D49 F49:H49 A52:H69 A51:D51 F51:H51" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3425,12 +3440,21 @@
   <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.6875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3438,7 +3462,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3446,7 +3470,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3460,7 +3484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3477,7 +3501,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -3494,7 +3518,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3511,7 +3535,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3528,7 +3552,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3545,7 +3569,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3562,7 +3586,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3579,7 +3603,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -3596,7 +3620,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -3613,7 +3637,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -3630,7 +3654,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -3647,7 +3671,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -3664,7 +3688,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -3681,7 +3705,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -3698,7 +3722,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -3715,7 +3739,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -3726,13 +3750,13 @@
         <v>43</v>
       </c>
       <c r="D21">
-        <v>2866006.36</v>
+        <v>-2866006.36</v>
       </c>
       <c r="E21" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -3749,7 +3773,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -3766,7 +3790,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -3783,7 +3807,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -3800,7 +3824,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -3817,7 +3841,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -3834,7 +3858,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -3851,7 +3875,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -3868,7 +3892,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -3885,7 +3909,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -3902,7 +3926,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -3919,7 +3943,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -3936,7 +3960,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -3953,7 +3977,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -3970,7 +3994,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -3987,7 +4011,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -4004,7 +4028,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -4021,7 +4045,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -4038,7 +4062,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -4055,7 +4079,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -4072,7 +4096,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>91</v>
       </c>
@@ -4089,7 +4113,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -4106,7 +4130,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -4123,7 +4147,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -4140,7 +4164,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -4157,7 +4181,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -4174,7 +4198,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -4191,7 +4215,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>104</v>
       </c>
@@ -4217,7 +4241,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>112</v>
       </c>
@@ -4243,7 +4267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -4269,7 +4293,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>116</v>
       </c>
@@ -4295,7 +4319,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>118</v>
       </c>
@@ -4321,7 +4345,7 @@
         <v>675925</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>120</v>
       </c>
@@ -4347,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>122</v>
       </c>
@@ -4373,7 +4397,7 @@
         <v>6170587.5</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>124</v>
       </c>
@@ -4399,7 +4423,7 @@
         <v>3599509.3750000005</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>125</v>
       </c>
@@ -4425,7 +4449,7 @@
         <v>415735</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>127</v>
       </c>
@@ -4451,7 +4475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
         <v>129</v>
       </c>
@@ -4477,7 +4501,7 @@
         <v>-148094.1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
         <v>131</v>
       </c>
@@ -4503,7 +4527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
         <v>133</v>
       </c>
@@ -4529,7 +4553,7 @@
         <v>2183733.2100000004</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
         <v>135</v>
       </c>
@@ -4555,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
         <v>137</v>
       </c>
@@ -4581,7 +4605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
         <v>139</v>
       </c>
@@ -4607,7 +4631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
         <v>141</v>
       </c>
@@ -4637,7 +4661,7 @@
   <autoFilter ref="A4:E51" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:H5 A17:H17 A6:D6 F6:H6 A7:D7 F7:H7 A8:D8 F8:H8 A9:D9 F9:H9 A10:D10 F10:H10 A11:D11 F11:H11 A12:D12 F12:H12 A13:D13 F13:H13 A14:D14 F14:H14 A15:D15 F15:H15 A16:D16 F16:H16 A25:H37 A18:D18 F18:H18 A19:D19 F19:H19 A20:D20 F20:H20 A21:D21 F21:H21 A22:D22 F22:H22 A23:D23 F23:H23 A24:D24 F24:H24 A50:H50 A38:D38 F38:H38 A39:D39 F39:H39 A40:D40 F40:H40 A41:D41 F41:H41 A42:D42 F42:H42 A43:D43 F43:H43 A44:D44 F44:H44 A45:D45 F45:H45 A46:D46 F46:H46 A47 C47:D47 F47:H47 A48 C48:D48 F48:H48 A49 C49:D49 F49:H49 A52:H69 A51:D51 F51:H51" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:H5 A17:H17 A6:D6 F6:H6 A7:D7 F7:H7 A8:D8 F8:H8 A9:D9 F9:H9 A10:D10 F10:H10 A11:D11 F11:H11 A12:D12 F12:H12 A13:D13 F13:H13 A14:D14 F14:H14 A15:D15 F15:H15 A16:D16 F16:H16 A25:H37 A18:D18 F18:H18 A19:D19 F19:H19 A20:D20 F20:H20 A21:C21 F21:H21 A22:D22 F22:H22 A23:D23 F23:H23 A24:D24 F24:H24 A50:H50 A38:D38 F38:H38 A39:D39 F39:H39 A40:D40 F40:H40 A41:D41 F41:H41 A42:D42 F42:H42 A43:D43 F43:H43 A44:D44 F44:H44 A45:D45 F45:H45 A46:D46 F46:H46 A47 C47:D47 F47:H47 A48 C48:D48 F48:H48 A49 C49:D49 F49:H49 A52:H69 A51:D51 F51:H51" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4647,12 +4671,21 @@
   <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.6875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.3125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4660,7 +4693,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4668,7 +4701,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4682,7 +4715,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -4699,7 +4732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -4716,7 +4749,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4733,7 +4766,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -4750,7 +4783,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4767,7 +4800,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4784,7 +4817,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -4801,7 +4834,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -4818,7 +4851,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -4835,7 +4868,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -4852,7 +4885,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -4869,7 +4902,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -4886,7 +4919,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -4903,7 +4936,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -4920,7 +4953,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -4937,7 +4970,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -4948,13 +4981,13 @@
         <v>43</v>
       </c>
       <c r="D21">
-        <v>5274956.17</v>
+        <v>-5274956.17</v>
       </c>
       <c r="E21" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -4971,7 +5004,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -4988,7 +5021,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -5005,7 +5038,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -5022,7 +5055,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -5039,7 +5072,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -5056,7 +5089,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -5073,7 +5106,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -5090,7 +5123,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -5107,7 +5140,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -5124,7 +5157,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -5141,7 +5174,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -5158,7 +5191,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -5175,7 +5208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -5192,7 +5225,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -5209,7 +5242,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -5226,7 +5259,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -5243,7 +5276,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -5260,7 +5293,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -5277,7 +5310,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -5294,7 +5327,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>91</v>
       </c>
@@ -5311,7 +5344,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -5328,7 +5361,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -5345,7 +5378,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -5362,7 +5395,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -5379,7 +5412,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -5396,7 +5429,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -5413,7 +5446,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>104</v>
       </c>
@@ -5439,7 +5472,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>112</v>
       </c>
@@ -5465,7 +5498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -5491,7 +5524,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>116</v>
       </c>
@@ -5517,7 +5550,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>118</v>
       </c>
@@ -5543,7 +5576,7 @@
         <v>675925</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>120</v>
       </c>
@@ -5569,7 +5602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>122</v>
       </c>
@@ -5595,7 +5628,7 @@
         <v>6126015</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>124</v>
       </c>
@@ -5621,7 +5654,7 @@
         <v>3573508.7500000005</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>125</v>
       </c>
@@ -5647,7 +5680,7 @@
         <v>414268.75</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>127</v>
       </c>
@@ -5673,7 +5706,7 @@
         <v>-91890.229949999994</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
         <v>129</v>
       </c>
@@ -5699,7 +5732,7 @@
         <v>-143961.36025500001</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
         <v>131</v>
       </c>
@@ -5725,7 +5758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
         <v>133</v>
       </c>
@@ -5751,7 +5784,7 @@
         <v>2151773.1839999999</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
         <v>135</v>
       </c>
@@ -5777,7 +5810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
         <v>137</v>
       </c>
@@ -5803,7 +5836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
         <v>139</v>
       </c>
@@ -5829,7 +5862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
         <v>141</v>
       </c>
@@ -5859,7 +5892,7 @@
   <autoFilter ref="A4:E51" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:H5 A17:H17 A6:D6 F6:H6 A7:D7 F7:H7 A8:D8 F8:H8 A9:D9 F9:H9 A10:D10 F10:H10 A11:D11 F11:H11 A12:D12 F12:H12 A13:D13 F13:H13 A14:D14 F14:H14 A15:D15 F15:H15 A16:D16 F16:H16 A25:H37 A18:D18 F18:H18 A19:D19 F19:H19 A20:D20 F20:H20 A21:D21 F21:H21 A22:D22 F22:H22 A23:D23 F23:H23 A24:D24 F24:H24 A50:H50 A38:D38 F38:H38 A39:D39 F39:H39 A40:D40 F40:H40 A41:D41 F41:H41 A42:D42 F42:H42 A43:D43 F43:H43 A44:D44 F44:H44 A45:D45 F45:H45 A46:D46 F46:H46 A47 C47:D47 F47:H47 A48 C48:D48 F48:H48 A49 C49:D49 F49:H49 A52:H69 A51:D51 F51:H51" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:H5 A17:H17 A6:D6 F6:H6 A7:D7 F7:H7 A8:D8 F8:H8 A9:D9 F9:H9 A10:D10 F10:H10 A11:D11 F11:H11 A12:D12 F12:H12 A13:D13 F13:H13 A14:D14 F14:H14 A15:D15 F15:H15 A16:D16 F16:H16 A25:H37 A18:D18 F18:H18 A19:D19 F19:H19 A20:D20 F20:H20 A21:C21 F21:H21 A22:D22 F22:H22 A23:D23 F23:H23 A24:D24 F24:H24 A50:H50 A38:D38 F38:H38 A39:D39 F39:H39 A40:D40 F40:H40 A41:D41 F41:H41 A42:D42 F42:H42 A43:D43 F43:H43 A44:D44 F44:H44 A45:D45 F45:H45 A46:D46 F46:H46 A47 C47:D47 F47:H47 A48 C48:D48 F48:H48 A49 C49:D49 F49:H49 A52:H69 A51:D51 F51:H51" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -5869,12 +5902,21 @@
   <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.6875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.3125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5882,7 +5924,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5890,7 +5932,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -5904,7 +5946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -5921,7 +5963,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -5938,7 +5980,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -5955,7 +5997,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -5972,7 +6014,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -5989,7 +6031,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -6006,7 +6048,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -6023,7 +6065,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -6040,7 +6082,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -6057,7 +6099,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -6074,7 +6116,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -6091,7 +6133,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -6108,7 +6150,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -6125,7 +6167,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -6142,7 +6184,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -6159,7 +6201,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -6170,13 +6212,13 @@
         <v>43</v>
       </c>
       <c r="D21">
-        <v>5190044.38</v>
+        <v>-5190044.38</v>
       </c>
       <c r="E21" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -6193,7 +6235,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -6210,7 +6252,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -6227,7 +6269,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -6244,7 +6286,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -6261,7 +6303,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -6278,7 +6320,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -6295,7 +6337,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -6312,7 +6354,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -6329,7 +6371,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -6346,7 +6388,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -6363,7 +6405,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -6380,7 +6422,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -6397,7 +6439,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -6414,7 +6456,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -6431,7 +6473,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -6448,7 +6490,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -6465,7 +6507,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -6482,7 +6524,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -6499,7 +6541,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -6516,7 +6558,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>91</v>
       </c>
@@ -6533,7 +6575,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -6550,7 +6592,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -6567,7 +6609,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -6584,7 +6626,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -6601,7 +6643,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -6618,7 +6660,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -6635,7 +6677,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>104</v>
       </c>
@@ -6661,7 +6703,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>112</v>
       </c>
@@ -6687,7 +6729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -6713,7 +6755,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>116</v>
       </c>
@@ -6739,7 +6781,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>118</v>
       </c>
@@ -6765,7 +6807,7 @@
         <v>675925</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>120</v>
       </c>
@@ -6791,7 +6833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>122</v>
       </c>
@@ -6817,7 +6859,7 @@
         <v>6341370</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>124</v>
       </c>
@@ -6843,7 +6885,7 @@
         <v>3699132.5000000005</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>125</v>
       </c>
@@ -6869,7 +6911,7 @@
         <v>429558.55</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>127</v>
       </c>
@@ -6895,7 +6937,7 @@
         <v>-95120.55</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
         <v>129</v>
       </c>
@@ -6921,7 +6963,7 @@
         <v>-139510.13999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
         <v>131</v>
       </c>
@@ -6947,7 +6989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
         <v>133</v>
       </c>
@@ -6973,7 +7015,7 @@
         <v>2223271.0720000002</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
         <v>135</v>
       </c>
@@ -6999,7 +7041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
         <v>137</v>
       </c>
@@ -7025,7 +7067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
         <v>139</v>
       </c>
@@ -7051,7 +7093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
         <v>141</v>
       </c>
@@ -7081,7 +7123,7 @@
   <autoFilter ref="A4:E51" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:H5 A17:H17 A6:D6 F6:H6 A7:D7 F7:H7 A8:D8 F8:H8 A9:D9 F9:H9 A10:D10 F10:H10 A11:D11 F11:H11 A12:D12 F12:H12 A13:D13 F13:H13 A14:D14 F14:H14 A15:D15 F15:H15 A16:D16 F16:H16 A25:H37 A18:D18 F18:H18 A19:D19 F19:H19 A20:D20 F20:H20 A21:D21 F21:H21 A22:D22 F22:H22 A23:D23 F23:H23 A24:D24 F24:H24 A50:H50 A38:D38 F38:H38 A39:D39 F39:H39 A40:D40 F40:H40 A41:D41 F41:H41 A42:D42 F42:H42 A43:D43 F43:H43 A44:D44 F44:H44 A45:D45 F45:H45 A46:D46 F46:H46 A47 C47:D47 F47:H47 A48 C48:D48 F48:H48 A49 C49:D49 F49:H49 A52:H69 A51:D51 F51:H51" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:H5 A17:H17 A6:D6 F6:H6 A7:D7 F7:H7 A8:D8 F8:H8 A9:D9 F9:H9 A10:D10 F10:H10 A11:D11 F11:H11 A12:D12 F12:H12 A13:D13 F13:H13 A14:D14 F14:H14 A15:D15 F15:H15 A16:D16 F16:H16 A25:H37 A18:D18 F18:H18 A19:D19 F19:H19 A20:D20 F20:H20 A21:C21 F21:H21 A22:D22 F22:H22 A23:D23 F23:H23 A24:D24 F24:H24 A50:H50 A38:D38 F38:H38 A39:D39 F39:H39 A40:D40 F40:H40 A41:D41 F41:H41 A42:D42 F42:H42 A43:D43 F43:H43 A44:D44 F44:H44 A45:D45 F45:H45 A46:D46 F46:H46 A47 C47:D47 F47:H47 A48 C48:D48 F48:H48 A49 C49:D49 F49:H49 A52:H69 A51:D51 F51:H51" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -7090,17 +7132,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.6875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.3125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>143</v>
       </c>
@@ -7108,7 +7155,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -7116,7 +7163,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -7130,7 +7177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -7147,7 +7194,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -7164,7 +7211,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -7181,7 +7228,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -7198,7 +7245,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -7215,7 +7262,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -7232,7 +7279,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -7249,7 +7296,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -7266,7 +7313,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -7283,7 +7330,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -7300,7 +7347,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -7317,7 +7364,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -7334,7 +7381,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -7351,7 +7398,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -7368,7 +7415,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -7385,7 +7432,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -7396,13 +7443,13 @@
         <v>43</v>
       </c>
       <c r="D21">
-        <v>6456080.4299999997</v>
+        <v>-6456080.4299999997</v>
       </c>
       <c r="E21" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -7419,7 +7466,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -7436,7 +7483,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -7453,7 +7500,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -7470,7 +7517,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -7487,7 +7534,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -7504,7 +7551,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -7521,7 +7568,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -7538,7 +7585,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -7555,7 +7602,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -7572,7 +7619,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -7589,7 +7636,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -7606,7 +7653,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -7623,7 +7670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -7640,7 +7687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -7657,7 +7704,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -7674,7 +7721,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -7691,7 +7738,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -7708,7 +7755,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -7725,7 +7772,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -7742,7 +7789,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>91</v>
       </c>
@@ -7759,7 +7806,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -7776,7 +7823,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -7793,7 +7840,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -7810,7 +7857,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -7827,7 +7874,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -7844,7 +7891,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -7861,7 +7908,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>104</v>
       </c>
@@ -7887,7 +7934,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>112</v>
       </c>
@@ -7913,7 +7960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -7939,7 +7986,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>116</v>
       </c>
@@ -7965,7 +8012,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>118</v>
       </c>
@@ -7991,7 +8038,7 @@
         <v>675925</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>120</v>
       </c>
@@ -8017,7 +8064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>122</v>
       </c>
@@ -8043,7 +8090,7 @@
         <v>6229912.5</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>124</v>
       </c>
@@ -8069,7 +8116,7 @@
         <v>3634115.6250000005</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>125</v>
       </c>
@@ -8095,7 +8142,7 @@
         <v>418954.8</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>127</v>
       </c>
@@ -8121,7 +8168,7 @@
         <v>-93448.720049999989</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
         <v>129</v>
       </c>
@@ -8147,7 +8194,7 @@
         <v>-146402.994745</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
         <v>131</v>
       </c>
@@ -8173,7 +8220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
         <v>133</v>
       </c>
@@ -8199,7 +8246,7 @@
         <v>2184811.9079999998</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
         <v>135</v>
       </c>
@@ -8225,7 +8272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
         <v>137</v>
       </c>
@@ -8251,7 +8298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
         <v>139</v>
       </c>
@@ -8277,7 +8324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
         <v>141</v>
       </c>
@@ -8307,7 +8354,7 @@
   <autoFilter ref="A4:E51" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:H5 A17:H17 A6:D6 F6:H6 A7:D7 F7:H7 A8:D8 F8:H8 A9:D9 F9:H9 A10:D10 F10:H10 A11:D11 F11:H11 A12:D12 F12:H12 A13:D13 F13:H13 A14:D14 F14:H14 A15:D15 F15:H15 A16:D16 F16:H16 A25:H37 A18:D18 F18:H18 A19:D19 F19:H19 A20:D20 F20:H20 A21:D21 F21:H21 A22:D22 F22:H22 A23:D23 F23:H23 A24:D24 F24:H24 A50:H50 A38:D38 F38:H38 A39:D39 F39:H39 A40:D40 F40:H40 A41:D41 F41:H41 A42:D42 F42:H42 A43:D43 F43:H43 A44:D44 F44:H44 A45:D45 F45:H45 A46:D46 F46:H46 A47 C47:D47 F47:H47 A48 C48:D48 F48:H48 A49 C49:D49 F49:H49 A52:H69 A51:D51 F51:H51" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:H5 A17:H17 A6:D6 F6:H6 A7:D7 F7:H7 A8:D8 F8:H8 A9:D9 F9:H9 A10:D10 F10:H10 A11:D11 F11:H11 A12:D12 F12:H12 A13:D13 F13:H13 A14:D14 F14:H14 A15:D15 F15:H15 A16:D16 F16:H16 A25:H37 A18:D18 F18:H18 A19:D19 F19:H19 A20:D20 F20:H20 A21:C21 F21:H21 A22:D22 F22:H22 A23:D23 F23:H23 A24:D24 F24:H24 A50:H50 A38:D38 F38:H38 A39:D39 F39:H39 A40:D40 F40:H40 A41:D41 F41:H41 A42:D42 F42:H42 A43:D43 F43:H43 A44:D44 F44:H44 A45:D45 F45:H45 A46:D46 F46:H46 A47 C47:D47 F47:H47 A48 C48:D48 F48:H48 A49 C49:D49 F49:H49 A52:H69 A51:D51 F51:H51" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -8316,13 +8363,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.6875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.3125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8330,7 +8386,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -8338,7 +8394,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -8352,7 +8408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -8369,7 +8425,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -8386,7 +8442,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -8403,7 +8459,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -8420,7 +8476,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -8437,7 +8493,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -8454,7 +8510,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -8471,7 +8527,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -8488,7 +8544,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -8505,7 +8561,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -8522,7 +8578,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -8539,7 +8595,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -8556,7 +8612,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -8573,7 +8629,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -8590,7 +8646,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -8607,7 +8663,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -8618,13 +8674,13 @@
         <v>43</v>
       </c>
       <c r="D21">
-        <v>5241084.5999999996</v>
+        <v>-5241084.5999999996</v>
       </c>
       <c r="E21" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -8641,7 +8697,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -8658,7 +8714,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -8675,7 +8731,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -8692,7 +8748,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -8709,7 +8765,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -8726,7 +8782,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -8743,7 +8799,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -8760,7 +8816,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -8777,7 +8833,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -8794,7 +8850,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -8811,7 +8867,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -8828,7 +8884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -8845,7 +8901,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -8862,7 +8918,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -8879,7 +8935,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -8896,7 +8952,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -8913,7 +8969,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -8930,7 +8986,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -8947,7 +9003,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -8964,7 +9020,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>91</v>
       </c>
@@ -8981,7 +9037,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -8998,7 +9054,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -9015,7 +9071,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -9032,7 +9088,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -9049,7 +9105,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -9066,7 +9122,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -9083,7 +9139,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>104</v>
       </c>
@@ -9109,7 +9165,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>112</v>
       </c>
@@ -9135,7 +9191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -9161,7 +9217,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>116</v>
       </c>
@@ -9187,7 +9243,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>118</v>
       </c>
@@ -9213,7 +9269,7 @@
         <v>675925</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>120</v>
       </c>
@@ -9239,7 +9295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>122</v>
       </c>
@@ -9265,7 +9321,7 @@
         <v>6390142.5</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>124</v>
       </c>
@@ -9291,7 +9347,7 @@
         <v>3727583.1250000005</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>125</v>
       </c>
@@ -9317,7 +9373,7 @@
         <v>430503.75</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>127</v>
       </c>
@@ -9343,7 +9399,7 @@
         <v>-95852.170050000001</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
         <v>129</v>
       </c>
@@ -9369,7 +9425,7 @@
         <v>-150168.399745</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
         <v>131</v>
       </c>
@@ -9395,7 +9451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
         <v>133</v>
       </c>
@@ -9421,7 +9477,7 @@
         <v>2236627.4260000004</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
         <v>135</v>
       </c>
@@ -9447,7 +9503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
         <v>137</v>
       </c>
@@ -9473,7 +9529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
         <v>139</v>
       </c>
@@ -9499,7 +9555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
         <v>141</v>
       </c>
@@ -9529,7 +9585,7 @@
   <autoFilter ref="A4:E51" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:H5 A50:H50 A38:D38 F38:H38 A17:H17 A6:D6 F6:H6 A7:D7 F7:H7 A8:D8 F8:H8 A9:D9 F9:H9 A10:D10 F10:H10 A11:D11 F11:H11 A12:D12 F12:H12 A13:D13 F13:H13 A14:D14 F14:H14 A15:D15 F15:H15 A16:D16 F16:H16 A25:H37 A18:D18 F18:H18 A19:D19 F19:H19 A20:D20 F20:H20 A21:D21 F21:H21 A22:D22 F22:H22 A23:D23 F23:H23 A24:D24 F24:H24 A39:D39 F39:H39 A40:D40 F40:H40 A41:D41 F41:H41 A42:D42 F42:H42 A43:D43 F43:H43 A44:D44 F44:H44 A45:D45 F45:H45 A46:D46 F46:H46 A47 C47:D47 F47:H47 A48 C48:D48 F48:H48 A49 C49:D49 F49:H49 A52:H69 A51:D51 F51:H51" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:H5 A50:H50 A38:D38 F38:H38 A17:H17 A6:D6 F6:H6 A7:D7 F7:H7 A8:D8 F8:H8 A9:D9 F9:H9 A10:D10 F10:H10 A11:D11 F11:H11 A12:D12 F12:H12 A13:D13 F13:H13 A14:D14 F14:H14 A15:D15 F15:H15 A16:D16 F16:H16 A25:H37 A18:D18 F18:H18 A19:D19 F19:H19 A20:D20 F20:H20 A21:C21 F21:H21 A22:D22 F22:H22 A23:D23 F23:H23 A24:D24 F24:H24 A39:D39 F39:H39 A40:D40 F40:H40 A41:D41 F41:H41 A42:D42 F42:H42 A43:D43 F43:H43 A44:D44 F44:H44 A45:D45 F45:H45 A46:D46 F46:H46 A47 C47:D47 F47:H47 A48 C48:D48 F48:H48 A49 C49:D49 F49:H49 A52:H69 A51:D51 F51:H51" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -9538,11 +9594,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="23.4375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.6875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.3125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>156</v>
       </c>
@@ -9550,7 +9617,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -9558,7 +9625,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -9572,7 +9639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -9589,7 +9656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -9606,7 +9673,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -9623,7 +9690,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -9640,7 +9707,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -9657,7 +9724,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -9674,7 +9741,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -9691,7 +9758,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -9708,7 +9775,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -9725,7 +9792,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -9742,7 +9809,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -9759,7 +9826,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -9776,7 +9843,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -9793,7 +9860,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -9810,7 +9877,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -9827,7 +9894,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -9844,7 +9911,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -9861,7 +9928,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -9878,7 +9945,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -9895,7 +9962,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -9912,7 +9979,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -9929,7 +9996,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -9946,7 +10013,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -9963,7 +10030,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -9980,7 +10047,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -9997,7 +10064,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -10014,7 +10081,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -10031,7 +10098,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -10048,7 +10115,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -10065,7 +10132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -10082,7 +10149,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -10099,7 +10166,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -10116,7 +10183,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -10133,7 +10200,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -10150,7 +10217,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -10167,7 +10234,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -10184,7 +10251,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>91</v>
       </c>
@@ -10201,7 +10268,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -10218,7 +10285,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -10235,7 +10302,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -10252,7 +10319,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -10269,7 +10336,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -10286,7 +10353,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -10303,7 +10370,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>104</v>
       </c>
@@ -10329,7 +10396,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>112</v>
       </c>
@@ -10355,7 +10422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -10381,7 +10448,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>116</v>
       </c>
@@ -10407,7 +10474,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>118</v>
       </c>
@@ -10433,7 +10500,7 @@
         <v>675925</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>120</v>
       </c>
@@ -10459,7 +10526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>122</v>
       </c>
@@ -10485,7 +10552,7 @@
         <v>6363157.5</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>124</v>
       </c>
@@ -10511,7 +10578,7 @@
         <v>3484586.2499999995</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>125</v>
       </c>
@@ -10537,7 +10604,7 @@
         <v>434127.3</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>127</v>
       </c>
@@ -10563,7 +10630,7 @@
         <v>-95447.362500000003</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
         <v>129</v>
       </c>
@@ -10589,7 +10656,7 @@
         <v>-149534.20125000001</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
         <v>131</v>
       </c>
@@ -10615,7 +10682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
         <v>133</v>
       </c>
@@ -10641,7 +10708,7 @@
         <v>2183563.5320000001</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
         <v>135</v>
       </c>
@@ -10667,7 +10734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
         <v>137</v>
       </c>
@@ -10693,7 +10760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
         <v>139</v>
       </c>
@@ -10719,7 +10786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
         <v>141</v>
       </c>
@@ -10758,23 +10825,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="18.875" customWidth="1"/>
-    <col min="2" max="2" width="79.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
-    <col min="4" max="4" width="16.875" customWidth="1"/>
-    <col min="5" max="5" width="36.875" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>165</v>
       </c>
@@ -10782,7 +10849,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -10790,7 +10857,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -10804,7 +10871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -10821,7 +10888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -10838,7 +10905,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -10855,7 +10922,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -10872,7 +10939,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -10889,7 +10956,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -10906,7 +10973,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -10923,7 +10990,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -10940,7 +11007,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -10957,7 +11024,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -10974,7 +11041,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -10991,7 +11058,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -11008,7 +11075,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -11025,7 +11092,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -11042,7 +11109,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -11059,7 +11126,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -11076,7 +11143,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -11093,7 +11160,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -11110,7 +11177,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -11127,7 +11194,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -11144,7 +11211,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -11161,7 +11228,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -11178,7 +11245,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -11195,7 +11262,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -11212,7 +11279,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -11229,7 +11296,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -11246,7 +11313,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -11263,7 +11330,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -11280,7 +11347,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -11297,7 +11364,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -11314,7 +11381,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -11331,7 +11398,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -11348,7 +11415,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -11365,7 +11432,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -11382,7 +11449,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -11399,7 +11466,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -11416,7 +11483,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -11433,7 +11500,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -11450,7 +11517,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>170</v>
       </c>
@@ -11467,7 +11534,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>170</v>
       </c>
@@ -11484,7 +11551,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -11501,7 +11568,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -11518,7 +11585,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
         <v>91</v>
       </c>
@@ -11535,7 +11602,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>91</v>
       </c>
@@ -11552,7 +11619,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
         <v>91</v>
       </c>
@@ -11569,7 +11636,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>101</v>
       </c>
@@ -11586,7 +11653,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>104</v>
       </c>
@@ -11612,7 +11679,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
         <v>112</v>
       </c>
@@ -11638,7 +11705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>114</v>
       </c>
@@ -11664,7 +11731,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>116</v>
       </c>
@@ -11690,7 +11757,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
         <v>118</v>
       </c>
@@ -11716,7 +11783,7 @@
         <v>675925</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>120</v>
       </c>
@@ -11742,7 +11809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>122</v>
       </c>
@@ -11768,7 +11835,7 @@
         <v>6336225</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
         <v>124</v>
       </c>
@@ -11794,7 +11861,7 @@
         <v>3469837.4999999995</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
         <v>125</v>
       </c>
@@ -11820,7 +11887,7 @@
         <v>430758.75</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
         <v>127</v>
       </c>
@@ -11846,7 +11913,7 @@
         <v>-95043.375</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
         <v>129</v>
       </c>
@@ -11872,7 +11939,7 @@
         <v>-142565.0625</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
         <v>175</v>
       </c>
@@ -11898,7 +11965,7 @@
         <v>-104662.80043771</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
         <v>131</v>
       </c>
@@ -11924,7 +11991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
         <v>133</v>
       </c>
@@ -11950,7 +12017,7 @@
         <v>2155095.0019999999</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A70" t="s">
         <v>135</v>
       </c>
@@ -11976,7 +12043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A71" t="s">
         <v>137</v>
       </c>
@@ -12002,7 +12069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A72" t="s">
         <v>139</v>
       </c>
@@ -12028,7 +12095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
         <v>141</v>
       </c>
